--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1596,7 +1596,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>AVLo Average Vehicle Loading</t>
   </si>
@@ -1718,9 +1718,6 @@
     <t>Passenger LDV</t>
   </si>
   <si>
-    <t>NATS</t>
-  </si>
-  <si>
     <t>Table 5-1</t>
   </si>
   <si>
@@ -1733,9 +1730,6 @@
     <t>freight HDVs - tons transported</t>
   </si>
   <si>
-    <t>INEGI</t>
-  </si>
-  <si>
     <t>Vehículos de motor registrados en circulación</t>
   </si>
   <si>
@@ -1811,7 +1805,10 @@
     <t>Page 63</t>
   </si>
   <si>
-    <t>GDF</t>
+    <t>North American Transportation Statistics (NATS)</t>
+  </si>
+  <si>
+    <t>National Institute of Statistics and Geography (INEGI)</t>
   </si>
 </sst>
 </file>
@@ -2332,22 +2329,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="68.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2355,136 +2350,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2504,7 +2495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
@@ -2533,7 +2524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -2570,7 +2561,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2629,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -2706,7 +2697,7 @@
         <v>611.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
@@ -2774,7 +2765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2842,7 +2833,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -2910,7 +2901,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -2936,7 +2927,7 @@
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>28</v>
       </c>
@@ -2962,7 +2953,7 @@
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
@@ -2988,7 +2979,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -3014,7 +3005,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -3040,7 +3031,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
@@ -3108,7 +3099,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -3176,7 +3167,7 @@
         <v>511.3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3200,7 +3191,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3208,7 +3199,7 @@
         <v>9385466</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="U19" s="18">
         <f>U18/(U16*1000)</f>
         <v>18.688701712465154</v>
@@ -3227,130 +3218,130 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.54296875" style="29" customWidth="1"/>
+    <col min="1" max="2" width="22.5703125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="25"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="25"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="B6" s="27">
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="28">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="28">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="28">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="57.95" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3367,11 +3358,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -4,15 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Occupancy rate" sheetId="3" r:id="rId2"/>
-    <sheet name="Domestic Freight Activity" sheetId="4" r:id="rId3"/>
-    <sheet name="Passenger Loading by City" sheetId="6" r:id="rId4"/>
-    <sheet name="AVLo" sheetId="2" r:id="rId5"/>
+    <sheet name="About" sheetId="6" r:id="rId1"/>
+    <sheet name="Mexico Psgr LDVs, Psgr HDVs" sheetId="9" r:id="rId2"/>
+    <sheet name="Mexican Subway" sheetId="11" r:id="rId3"/>
+    <sheet name="Mexico Freight Activity" sheetId="8" r:id="rId4"/>
+    <sheet name="BTS NTS Modal Profile Data" sheetId="3" r:id="rId5"/>
+    <sheet name="AVLo-passengers" sheetId="2" r:id="rId6"/>
+    <sheet name="AVLo-freight" sheetId="4" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="ti_tbl_50">#REF!</definedName>
+    <definedName name="ti_tbl_69">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -1596,26 +1609,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="151">
   <si>
     <t>AVLo Average Vehicle Loading</t>
   </si>
   <si>
-    <t>passenger LDVs</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
-    <t>Vehicle Type</t>
-  </si>
-  <si>
-    <t>passengers</t>
-  </si>
-  <si>
-    <t>freight</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -1634,22 +1635,250 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Vehicle types for which there are no data in this variable (or in one of the other essential variables</t>
-  </si>
-  <si>
-    <t>for cost calculation) will not be included when the model calculates changes in amount spent on</t>
-  </si>
-  <si>
-    <t>vehicles.</t>
-  </si>
-  <si>
-    <t>Occupancy rate</t>
-  </si>
-  <si>
-    <t>http://www.onuhabitat.org/Reporte%20Nacional%20de%20Movilidad%20Urbana%20en%20Mexico%202014-2015%20-%20Final.pdf</t>
+    <t>Passenger-miles, all buses (millions)</t>
+  </si>
+  <si>
+    <t>Vehicle-miles, all buses (millions)</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. passengers/bus</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. passengers / aircraft</t>
+  </si>
+  <si>
+    <t>Aircraft revenue-miles (thousands), total certified</t>
+  </si>
+  <si>
+    <t>Revenue passenger-miles (thousands), total certified</t>
+  </si>
+  <si>
+    <t>Passenger HDVs (buses)</t>
+  </si>
+  <si>
+    <t>Freight Rail</t>
+  </si>
+  <si>
+    <t>Train mileage, freight (thousands)</t>
+  </si>
+  <si>
+    <t>Revenue ton-miles of freight (millions)</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. freight tons/train</t>
+  </si>
+  <si>
+    <t>This is per train, not per rail car.  Rail car mileage is also available in the source document, should it be needed.</t>
+  </si>
+  <si>
+    <t>Passenger Rail</t>
+  </si>
+  <si>
+    <t>Amtrak passenger train-miles (millions)</t>
+  </si>
+  <si>
+    <t>Amtrak revenue passenger-miles (millions)</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. passengers/Amtrak train</t>
+  </si>
+  <si>
+    <t>Freight Ships</t>
+  </si>
+  <si>
+    <t>ton-miles (thousands), coastwise</t>
+  </si>
+  <si>
+    <t>ton-miles (thousands), internal</t>
+  </si>
+  <si>
+    <t>ton-miles (thousands), lakewise</t>
+  </si>
+  <si>
+    <t>average haul (miles), coastwise</t>
+  </si>
+  <si>
+    <t>average haul (miles), internal</t>
+  </si>
+  <si>
+    <t>average haul (miles), lakewise</t>
+  </si>
+  <si>
+    <t>ton-mile-weighted average haul distance (miles)</t>
+  </si>
+  <si>
+    <t>number of vessels, total nonself-propelled</t>
+  </si>
+  <si>
+    <t>number of vessels, total self-propelled (excluding tugboats)</t>
+  </si>
+  <si>
+    <t>number of vessels, total</t>
+  </si>
+  <si>
+    <t>total vessel-miles (miles)</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. freight tons/vessel or tow</t>
+  </si>
+  <si>
+    <t>A "tow" is a group of barges towed by a single powered ship.  It counts as one unit for purposes of this statistic.</t>
+  </si>
+  <si>
+    <t>There appears to be an error in the source data for ton-miles for years 2004-2005, so we use year 2003.</t>
+  </si>
+  <si>
+    <t>passenger-miles, heavy rail (millions)</t>
+  </si>
+  <si>
+    <t>passenger-miles, light rail (millions)</t>
+  </si>
+  <si>
+    <t>passenger-miles, commuter rail (millions)</t>
+  </si>
+  <si>
+    <t>vehicle-miles, heavy rail (millions)</t>
+  </si>
+  <si>
+    <t>vehicle-miles, light rail (millions)</t>
+  </si>
+  <si>
+    <t>vehicle-miles, commuter rail (millions)</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. passengers/heavy rail vehicle</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. passengers/light rail vehicle</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. passengers/commuter rail vehicle</t>
+  </si>
+  <si>
+    <t>Intercity (Amtrak)</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>passenger-mile-weighted distance-weighted avg. passengers/vehicle</t>
+  </si>
+  <si>
+    <t>Revenue ton-miles of freight (thousands), total certified</t>
+  </si>
+  <si>
+    <t>share of aircraft-miles devoted to freight</t>
+  </si>
+  <si>
+    <t>Assumes passenger and freight aircraft fly similar numbers of miles per year</t>
+  </si>
+  <si>
+    <t>Distance-weighted avg. freight tons / aircraft</t>
+  </si>
+  <si>
+    <t>total aircraft stock (U.S., 2014, EIA AEO 2016, Table 49)</t>
+  </si>
+  <si>
+    <t>cargo aircraft stock (U.S., 2014, EIA AEO 2016, Table 49)</t>
+  </si>
+  <si>
+    <t>Passenger motorbikes</t>
+  </si>
+  <si>
+    <t>vehicle-miles, total (millions)</t>
+  </si>
+  <si>
+    <t>passenger-miles, total (millions)</t>
+  </si>
+  <si>
+    <t>distance-weighted avg. passengers/motorbike</t>
+  </si>
+  <si>
+    <t>Passenger LDVs</t>
+  </si>
+  <si>
+    <t>vehicle-miles, passenger car, total (millions)</t>
+  </si>
+  <si>
+    <t>passenger-miles, passenger car, total (millions)</t>
+  </si>
+  <si>
+    <t>distance-weighted avg. passengers/LDV</t>
+  </si>
+  <si>
+    <t>Not currently used, but could be used instead of the figure from the National Household Travel Survey if desired.</t>
+  </si>
+  <si>
+    <t>Passenger aircraft and freight aircraft</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Transportation Statistics</t>
+  </si>
+  <si>
+    <t>Appendix D - Modal Profiles</t>
+  </si>
+  <si>
+    <t>http://www.rita.dot.gov/bts/sites/rita.dot.gov.bts/files/publications/national_transportation_statistics/index.html#appendix_d</t>
+  </si>
+  <si>
+    <t>Air Carrier Profile</t>
+  </si>
+  <si>
+    <t>Bus Profile</t>
+  </si>
+  <si>
+    <t>Transit Profile</t>
+  </si>
+  <si>
+    <t>Rail Profile</t>
+  </si>
+  <si>
+    <t>Water Transport Profile</t>
+  </si>
+  <si>
+    <t>Automobile Profile</t>
+  </si>
+  <si>
+    <t>National Transportation Statistics (most recently updated tables updated in October 2016)</t>
+  </si>
+  <si>
+    <t>This number is a guess, since the NTS just barely doesn't have enough data to fully calculate this metric.</t>
+  </si>
+  <si>
+    <t>average number of hauls (trips) completed per year</t>
+  </si>
+  <si>
+    <t>freight HDVs - tons transported</t>
+  </si>
+  <si>
+    <t>North American Transportation Statistics (NATS)</t>
+  </si>
+  <si>
+    <t>http://nats.sct.gob.mx/go-to-tables/table-5-domestic-freight-activity/table-5-1-domestic-freight-activity-by-mode-tons/</t>
+  </si>
+  <si>
+    <t>Table 5-1</t>
+  </si>
+  <si>
+    <t>freight HDVs - number of vehicles</t>
+  </si>
+  <si>
+    <t>National Institute of Statistics and Geography (INEGI)</t>
+  </si>
+  <si>
+    <t>Vehículos de motor registrados en circulación</t>
+  </si>
+  <si>
+    <t>http://www.inegi.org.mx/est/lista_cubos/consulta.aspx?p=adm&amp;c=8</t>
+  </si>
+  <si>
+    <t>Programa Integral de Transporte y Vialidad 2007 - 2012 (PDF)</t>
+  </si>
+  <si>
+    <t>http://bicitekas.org/wp/wp-content/uploads/2013/07/2007_Encuesta_Origen_Destino_INEGI.pdf</t>
+  </si>
+  <si>
+    <t>Page 63</t>
   </si>
   <si>
     <t>North American Transportation Statistics</t>
@@ -1703,36 +1932,6 @@
     <t>Total of vehicles (INEGI)</t>
   </si>
   <si>
-    <t>http://www.inegi.org.mx/est/lista_cubos/consulta.aspx?p=adm&amp;c=8</t>
-  </si>
-  <si>
-    <t>Page 14</t>
-  </si>
-  <si>
-    <t>REPORTE NACIONAL DE MOVILIDAD URBANA EN MÉXICO 2014-2015</t>
-  </si>
-  <si>
-    <t>UN-HABITAT</t>
-  </si>
-  <si>
-    <t>Passenger LDV</t>
-  </si>
-  <si>
-    <t>Table 5-1</t>
-  </si>
-  <si>
-    <t>http://nats.sct.gob.mx/go-to-tables/table-5-domestic-freight-activity/table-5-1-domestic-freight-activity-by-mode-tons/</t>
-  </si>
-  <si>
-    <t>freight HDVs - number of vehicles</t>
-  </si>
-  <si>
-    <t>freight HDVs - tons transported</t>
-  </si>
-  <si>
-    <t>Vehículos de motor registrados en circulación</t>
-  </si>
-  <si>
     <t>Documento fuente</t>
   </si>
   <si>
@@ -1763,6 +1962,15 @@
     <t>Taxi</t>
   </si>
   <si>
+    <t>Intracity bus</t>
+  </si>
+  <si>
+    <t>Intercity bus</t>
+  </si>
+  <si>
+    <t>Subway car (9 per train)</t>
+  </si>
+  <si>
     <t>BRT</t>
   </si>
   <si>
@@ -1778,50 +1986,100 @@
     <t>Mortorcicle</t>
   </si>
   <si>
-    <t>Intercity bus</t>
-  </si>
-  <si>
-    <t>Subway car (9 per train)</t>
-  </si>
-  <si>
-    <t>Intracity bus</t>
-  </si>
-  <si>
-    <t>Data in this variable are only available for certain vehicle types.</t>
-  </si>
-  <si>
-    <t>passenger HDVs, passenger rail, motorbikes</t>
-  </si>
-  <si>
-    <t>Programa Integral de Transporte y Vialidad 2007 - 2012 (PDF)</t>
-  </si>
-  <si>
     <t>Values in red are estimated based on average distances traveled by mode.</t>
   </si>
   <si>
-    <t>http://bicitekas.org/wp/wp-content/uploads/2013/07/2007_Encuesta_Origen_Destino_INEGI.pdf</t>
-  </si>
-  <si>
-    <t>Page 63</t>
-  </si>
-  <si>
-    <t>North American Transportation Statistics (NATS)</t>
-  </si>
-  <si>
-    <t>National Institute of Statistics and Geography (INEGI)</t>
+    <t>Avg loading</t>
+  </si>
+  <si>
+    <t>Other Modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDMX Metro </t>
+  </si>
+  <si>
+    <t>http://data.metro.cdmx.gob.mx/operacion/index.html</t>
+  </si>
+  <si>
+    <t>TRAINS / LINE</t>
+  </si>
+  <si>
+    <t>La red del STC tiene un total de 390 trenes asignados (321 neumáticos y 69 férreos), para proporcionar el servicio a los usuarios en horas punta, se tiene un polígono de operación de 282 trenes, los 108 trenes restantes se encuentran distribuidos en mantenimiento sistemático, mantenimiento mayor, rehabilitación, proyectos especiales y como reserva.</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Trains</t>
+  </si>
+  <si>
+    <t>Nota: La cantidad de trenes por línea puede variar por una redistribución del parque vehicular en función de las necesidades del servicio.</t>
+  </si>
+  <si>
+    <t>Con objeto de proporcionar un mejor servicio, el STC modificó trenes de 6 carros por trenes de 9 carros con el fin de incrementar la frecuencia del paso de los convoyes.</t>
+  </si>
+  <si>
+    <t>Como parte de los 11 compromisos para mejorar el servicio anunciados por el Jefe de Gobierno del Distrito Federal, se han reparado 18 trenes que se encontraban fuera de servicio, incorporándose a la operación de las Líneas 1, 3, 5, 7, 8, 9, A y B.</t>
+  </si>
+  <si>
+    <t>PAX / TRAIN</t>
+  </si>
+  <si>
+    <t>Tren</t>
+  </si>
+  <si>
+    <t>Sitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing </t>
+  </si>
+  <si>
+    <t>6 vagones</t>
+  </si>
+  <si>
+    <t>7 vagones</t>
+  </si>
+  <si>
+    <t>9 vagones</t>
+  </si>
+  <si>
+    <t>Assumed Average Loading Factor</t>
+  </si>
+  <si>
+    <t>Average Train Loading</t>
+  </si>
+  <si>
+    <t>passenger LDVs, passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>CDMX Metro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1854,7 +2112,229 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="P-AVGARD"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1873,21 +2353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1900,8 +2365,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFE7827"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF303030"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFE7827"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1916,12 +2446,152 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
@@ -1948,8 +2618,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1957,13 +2633,461 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0096D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0096D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="27" borderId="12">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyNumberFormat="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1975,60 +3099,237 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="10" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="45" fillId="35" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="46" fillId="35" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="45" fillId="36" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="155"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="155" applyFill="1"/>
+    <xf numFmtId="1" fontId="47" fillId="36" borderId="0" xfId="155" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+  <cellStyles count="156">
+    <cellStyle name="20% - Accent1 2" xfId="2"/>
+    <cellStyle name="20% - Accent2 2" xfId="3"/>
+    <cellStyle name="20% - Accent3 2" xfId="4"/>
+    <cellStyle name="20% - Accent4 2" xfId="5"/>
+    <cellStyle name="20% - Accent5 2" xfId="6"/>
+    <cellStyle name="20% - Accent6 2" xfId="7"/>
+    <cellStyle name="40% - Accent1 2" xfId="8"/>
+    <cellStyle name="40% - Accent2 2" xfId="9"/>
+    <cellStyle name="40% - Accent3 2" xfId="10"/>
+    <cellStyle name="40% - Accent4 2" xfId="11"/>
+    <cellStyle name="40% - Accent5 2" xfId="12"/>
+    <cellStyle name="40% - Accent6 2" xfId="13"/>
+    <cellStyle name="60% - Accent1 2" xfId="14"/>
+    <cellStyle name="60% - Accent2 2" xfId="15"/>
+    <cellStyle name="60% - Accent3 2" xfId="16"/>
+    <cellStyle name="60% - Accent4 2" xfId="17"/>
+    <cellStyle name="60% - Accent5 2" xfId="18"/>
+    <cellStyle name="60% - Accent6 2" xfId="19"/>
+    <cellStyle name="Accent1 2" xfId="20"/>
+    <cellStyle name="Accent2 2" xfId="21"/>
+    <cellStyle name="Accent3 2" xfId="22"/>
+    <cellStyle name="Accent4 2" xfId="23"/>
+    <cellStyle name="Accent5 2" xfId="24"/>
+    <cellStyle name="Accent6 2" xfId="25"/>
+    <cellStyle name="Bad 2" xfId="26"/>
+    <cellStyle name="Body: normal cell" xfId="27"/>
+    <cellStyle name="Body: normal cell 2" xfId="28"/>
+    <cellStyle name="Calculation 2" xfId="29"/>
+    <cellStyle name="Check Cell 2" xfId="30"/>
+    <cellStyle name="Column heading" xfId="31"/>
+    <cellStyle name="Comma 2" xfId="32"/>
+    <cellStyle name="Comma 2 2" xfId="33"/>
+    <cellStyle name="Comma 2 3" xfId="154"/>
+    <cellStyle name="Comma 3" xfId="34"/>
+    <cellStyle name="Comma 4" xfId="35"/>
+    <cellStyle name="Comma 5" xfId="36"/>
+    <cellStyle name="Comma 6" xfId="37"/>
+    <cellStyle name="Comma 7" xfId="38"/>
+    <cellStyle name="Comma 8" xfId="39"/>
+    <cellStyle name="Corner heading" xfId="40"/>
+    <cellStyle name="Currency 2" xfId="41"/>
+    <cellStyle name="Currency 3" xfId="42"/>
+    <cellStyle name="Currency 3 2" xfId="43"/>
+    <cellStyle name="Data" xfId="44"/>
+    <cellStyle name="Data 2" xfId="45"/>
+    <cellStyle name="Data no deci" xfId="46"/>
+    <cellStyle name="Data Superscript" xfId="47"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="48"/>
+    <cellStyle name="Explanatory Text 2" xfId="49"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="50"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="51"/>
+    <cellStyle name="Footnotes: top row" xfId="52"/>
+    <cellStyle name="Footnotes: top row 2" xfId="53"/>
+    <cellStyle name="Good 2" xfId="54"/>
+    <cellStyle name="Header: bottom row" xfId="55"/>
+    <cellStyle name="Header: bottom row 2" xfId="56"/>
+    <cellStyle name="Heading 1 2" xfId="57"/>
+    <cellStyle name="Heading 2 2" xfId="58"/>
+    <cellStyle name="Heading 3 2" xfId="59"/>
+    <cellStyle name="Heading 4 2" xfId="60"/>
+    <cellStyle name="Hed Side" xfId="61"/>
+    <cellStyle name="Hed Side 2" xfId="62"/>
+    <cellStyle name="Hed Side bold" xfId="63"/>
+    <cellStyle name="Hed Side Indent" xfId="64"/>
+    <cellStyle name="Hed Side Regular" xfId="65"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="66"/>
+    <cellStyle name="Hed Top" xfId="67"/>
+    <cellStyle name="Hed Top - SECTION" xfId="68"/>
+    <cellStyle name="Hed Top_3-new4" xfId="69"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="70"/>
+    <cellStyle name="Input 2" xfId="71"/>
+    <cellStyle name="Linked Cell 2" xfId="72"/>
+    <cellStyle name="Neutral 2" xfId="73"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="74"/>
+    <cellStyle name="Normal 11" xfId="75"/>
+    <cellStyle name="Normal 12" xfId="155"/>
+    <cellStyle name="Normal 2" xfId="76"/>
+    <cellStyle name="Normal 2 2" xfId="77"/>
+    <cellStyle name="Normal 2 3" xfId="78"/>
+    <cellStyle name="Normal 3" xfId="79"/>
+    <cellStyle name="Normal 3 2" xfId="80"/>
+    <cellStyle name="Normal 3 2 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 3" xfId="83"/>
+    <cellStyle name="Normal 3 3" xfId="84"/>
+    <cellStyle name="Normal 3 3 2" xfId="85"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 3" xfId="87"/>
+    <cellStyle name="Normal 3 4" xfId="88"/>
+    <cellStyle name="Normal 3 4 2" xfId="89"/>
+    <cellStyle name="Normal 3 5" xfId="90"/>
+    <cellStyle name="Normal 3 6" xfId="91"/>
+    <cellStyle name="Normal 3 7" xfId="92"/>
+    <cellStyle name="Normal 4" xfId="93"/>
+    <cellStyle name="Normal 4 2" xfId="94"/>
+    <cellStyle name="Normal 4 2 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 3" xfId="97"/>
+    <cellStyle name="Normal 4 3" xfId="98"/>
+    <cellStyle name="Normal 4 3 2" xfId="99"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 3" xfId="101"/>
+    <cellStyle name="Normal 4 4" xfId="102"/>
+    <cellStyle name="Normal 4 4 2" xfId="103"/>
+    <cellStyle name="Normal 4 5" xfId="104"/>
+    <cellStyle name="Normal 4 6" xfId="105"/>
+    <cellStyle name="Normal 4 7" xfId="106"/>
+    <cellStyle name="Normal 5" xfId="107"/>
+    <cellStyle name="Normal 5 2" xfId="108"/>
+    <cellStyle name="Normal 5 3" xfId="109"/>
+    <cellStyle name="Normal 6" xfId="110"/>
+    <cellStyle name="Normal 6 2" xfId="111"/>
+    <cellStyle name="Normal 7" xfId="112"/>
+    <cellStyle name="Normal 7 2" xfId="113"/>
+    <cellStyle name="Normal 8" xfId="114"/>
+    <cellStyle name="Normal 9" xfId="115"/>
+    <cellStyle name="Note 2" xfId="116"/>
+    <cellStyle name="Note 2 2" xfId="117"/>
+    <cellStyle name="Output 2" xfId="118"/>
+    <cellStyle name="Parent row" xfId="119"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="139"/>
+    <cellStyle name="Table title 2" xfId="140"/>
+    <cellStyle name="Title 2" xfId="141"/>
+    <cellStyle name="Title Text" xfId="142"/>
+    <cellStyle name="Title Text 1" xfId="143"/>
+    <cellStyle name="Title Text 2" xfId="144"/>
+    <cellStyle name="Title-1" xfId="145"/>
+    <cellStyle name="Title-2" xfId="146"/>
+    <cellStyle name="Title-3" xfId="147"/>
+    <cellStyle name="Total 2" xfId="148"/>
+    <cellStyle name="Warning Text 2" xfId="149"/>
+    <cellStyle name="Wrap" xfId="150"/>
+    <cellStyle name="Wrap Bold" xfId="151"/>
+    <cellStyle name="Wrap Title" xfId="152"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="153"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2038,6 +3339,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Rail shipments 93-97"/>
+      <sheetName val="Waterborne Flows 93-97"/>
+      <sheetName val="Air and vessel 93-97"/>
+      <sheetName val="Figure 2 compare"/>
+      <sheetName val="Factors Comparisons"/>
+      <sheetName val="1997  Table 1a Modified"/>
+      <sheetName val="Figure 1"/>
+      <sheetName val="1993-97 Table 1  US Highlights"/>
+      <sheetName val="93-97 US Freight Table 1"/>
+      <sheetName val="93-97 US Freight Table 1 (b)"/>
+      <sheetName val="93-97 Percents Tab 2&amp;3"/>
+      <sheetName val="Integrated View 93-97"/>
+      <sheetName val="Figure 3 modal shares"/>
+      <sheetName val="1993-97 Percents"/>
+      <sheetName val="BTS &amp; ORNL estimates"/>
+      <sheetName val="Oil Pipeline (2)"/>
+      <sheetName val="1997 Table 2"/>
+      <sheetName val="Table 4 Distance"/>
+      <sheetName val="Distance percent change"/>
+      <sheetName val="Distance 93-97"/>
+      <sheetName val="Distance Fig value per ton"/>
+      <sheetName val="Distance Bar"/>
+      <sheetName val="Table 5 Size 93-97"/>
+      <sheetName val="Size percent change"/>
+      <sheetName val="Size Fig value per ton"/>
+      <sheetName val="Size Bar "/>
+      <sheetName val="BTS Mode"/>
+      <sheetName val="Ton-miles data"/>
+      <sheetName val="Ton-miles figure"/>
+      <sheetName val="table 3 commodities"/>
+      <sheetName val="Commodities ranked by value"/>
+      <sheetName val="Commod ranked by tons"/>
+      <sheetName val="Commod ranked by ton-miles"/>
+      <sheetName val="Commod ranked by miles per ton "/>
+      <sheetName val="Commod ranked by val per ton"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2327,190 +3709,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="68.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>15</v>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="http://nhts.ornl.gov/2009/pub/stt.pdf"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="2" width="22.54296875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>1.2</v>
+    <row r="1" spans="1:2" ht="43.5">
+      <c r="A1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29">
+      <c r="A2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A6" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="37">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="38">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2519,688 +4027,922 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="16384" width="11.6328125" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17">
+      <c r="B5" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43">
+        <v>2</v>
+      </c>
+      <c r="E7" s="43">
+        <v>3</v>
+      </c>
+      <c r="F7" s="43">
+        <v>4</v>
+      </c>
+      <c r="G7" s="43">
+        <v>5</v>
+      </c>
+      <c r="H7" s="43">
+        <v>6</v>
+      </c>
+      <c r="I7" s="43">
+        <v>7</v>
+      </c>
+      <c r="J7" s="43">
+        <v>8</v>
+      </c>
+      <c r="K7" s="43">
+        <v>9</v>
+      </c>
+      <c r="L7" s="43">
+        <v>12</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="44">
+        <v>49</v>
+      </c>
+      <c r="D8" s="44">
+        <v>40</v>
+      </c>
+      <c r="E8" s="44">
+        <v>50</v>
+      </c>
+      <c r="F8" s="44">
+        <v>12</v>
+      </c>
+      <c r="G8" s="44">
+        <v>25</v>
+      </c>
+      <c r="H8" s="44">
+        <v>17</v>
+      </c>
+      <c r="I8" s="44">
+        <v>33</v>
+      </c>
+      <c r="J8" s="44">
+        <v>30</v>
+      </c>
+      <c r="K8" s="44">
+        <v>29</v>
+      </c>
+      <c r="L8" s="44">
+        <v>30</v>
+      </c>
+      <c r="M8" s="44">
+        <v>39</v>
+      </c>
+      <c r="N8" s="44">
+        <v>36</v>
+      </c>
+      <c r="O8" s="44">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17">
+      <c r="B10" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17">
+      <c r="B13" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17">
+      <c r="B14" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17">
+      <c r="B16" s="45"/>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="B18" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="B19" s="46"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="48">
+        <v>240</v>
+      </c>
+      <c r="D21" s="48">
+        <v>780</v>
+      </c>
+      <c r="E21" s="48">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="48">
+        <v>336</v>
+      </c>
+      <c r="D22" s="48">
+        <v>1139</v>
+      </c>
+      <c r="E22" s="48">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="48">
+        <v>360</v>
+      </c>
+      <c r="D23" s="48">
+        <v>1170</v>
+      </c>
+      <c r="E23" s="48">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="51">
+        <f>AVERAGE(E21:E23)*A27</f>
+        <v>670.83333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="1" spans="1:22" ht="15" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="21">
         <v>1990</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="21">
         <v>1995</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="21">
         <v>1996</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="21">
         <v>1997</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="21">
         <v>1998</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="21">
         <v>1999</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="21">
         <v>2000</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="21">
         <v>2001</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="21">
         <v>2002</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="21">
         <v>2003</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="21">
         <v>2004</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="21">
         <v>2005</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="21">
         <v>2006</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="21">
         <v>2007</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="21">
         <v>2008</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="21">
         <v>2009</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="21">
         <v>2010</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="21">
         <v>2011</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="21">
         <v>2012</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="21">
         <v>2013</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="21">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:22">
+      <c r="A6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="23">
         <v>380.1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="23">
         <v>429.1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="23">
         <v>445.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="23">
         <v>398.4</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="23">
         <v>457</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="23">
         <v>468</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="23">
         <v>483.3</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="23">
         <v>482.5</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="23">
         <v>483.7</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="23">
         <v>489</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="23">
         <v>496.7</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="23">
         <v>511.7</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="23">
         <v>523.4</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="23">
         <v>548.1</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="23">
         <v>563.79999999999995</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="23">
         <v>529.5</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="23">
         <v>555.4</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="23">
         <v>578.79999999999995</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="23">
         <v>594.5</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="23">
         <v>600.29999999999995</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="23">
         <v>611.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:22">
+      <c r="A7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="25">
         <v>0.1</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="25">
         <v>0.1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="25">
         <v>0.1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="25">
         <v>0.1</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="25">
         <v>0.1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="25">
         <v>0.1</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="25">
         <v>0.1</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="25">
         <v>0.1</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="25">
         <v>0.1</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="25">
         <v>0.1</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="25">
         <v>0.1</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="25">
         <v>0.1</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="25">
         <v>0.1</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="25">
         <v>0.1</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="25">
         <v>0.1</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="25">
         <v>0.1</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="25">
         <v>0.1</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="25">
         <v>0.1</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="25">
         <v>0.1</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="25">
         <v>0.1</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11">
+    <row r="8" spans="1:22">
+      <c r="A8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="23">
         <v>30.6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="23">
         <v>31.6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="23">
         <v>31.7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="23">
         <v>30.4</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="23">
         <v>34.299999999999997</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="23">
         <v>33.700000000000003</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="23">
         <v>33.799999999999997</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="23">
         <v>32.5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="23">
         <v>33.200000000000003</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="23">
         <v>35.5</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="23">
         <v>35.700000000000003</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="23">
         <v>39.200000000000003</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="23">
         <v>37.9</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="23">
         <v>35.299999999999997</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="23">
         <v>35.200000000000003</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="23">
         <v>34</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="23">
         <v>37.200000000000003</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="23">
         <v>37.4</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="23">
         <v>35.4</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="23">
         <v>36.4</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="23">
         <v>37.4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="15">
+    <row r="9" spans="1:22">
+      <c r="A9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="27">
         <v>30.6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="27">
         <v>31.6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="27">
         <v>31.7</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="27">
         <v>30.4</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="27">
         <v>34.299999999999997</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="27">
         <v>33.700000000000003</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="27">
         <v>33.799999999999997</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="27">
         <v>32.5</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="27">
         <v>33.200000000000003</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="27">
         <v>35.5</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="27">
         <v>35.700000000000003</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="27">
         <v>39.200000000000003</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="27">
         <v>37.9</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="27">
         <v>35.299999999999997</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="27">
         <v>35.200000000000003</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="27">
         <v>34</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="27">
         <v>37.200000000000003</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="27">
         <v>37.4</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="27">
         <v>35.4</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="27">
         <v>36.4</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="27">
         <v>37.4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="12" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-    </row>
-    <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="13">
+        <v>103</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="25">
         <v>34.700000000000003</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="25">
         <v>30.7</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="25">
         <v>30.2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="25">
         <v>35.4</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="25">
         <v>41.8</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="25">
         <v>39.799999999999997</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="25">
         <v>36.200000000000003</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="25">
         <v>40.700000000000003</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="25">
         <v>39.299999999999997</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="25">
         <v>37.200000000000003</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="25">
         <v>34.799999999999997</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="25">
         <v>36.9</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="25">
         <v>40</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="25">
         <v>38.799999999999997</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="25">
         <v>44.2</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="25">
         <v>44.5</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="25">
         <v>48.1</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="25">
         <v>55.8</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="25">
         <v>60.9</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="25">
         <v>61.6</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="25">
         <v>62.8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11">
+    <row r="16" spans="1:22">
+      <c r="A16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="23">
         <v>314.7</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="23">
         <v>366.7</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="23">
         <v>383.3</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="23">
         <v>332.5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="23">
         <v>380.8</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="23">
         <v>394.4</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="23">
         <v>413.2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="23">
         <v>409.2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="23">
         <v>411.1</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="23">
         <v>416.2</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="23">
         <v>426.1</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="23">
         <v>435.5</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="23">
         <v>445.4</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="23">
         <v>473.9</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="23">
         <v>484.3</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="23">
         <v>450.9</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="23">
         <v>470</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="23">
         <v>485.5</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="23">
         <v>498.1</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="23">
         <v>502.2</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="23">
         <v>511.3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="U18" s="17">
+    <row r="17" spans="1:22">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="29">
         <v>9385466</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="U19" s="18">
+    <row r="19" spans="1:22">
+      <c r="T19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U19" s="39">
         <f>U18/(U16*1000)</f>
         <v>18.688701712465154</v>
       </c>
@@ -3212,136 +4954,1533 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="22.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="73.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="102.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8218378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>810106273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>39719513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B6/B5</f>
+        <v>0.11510152284263959</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9">
+        <f>B3/(B2*(1-B7))</f>
+        <v>111.39416306433705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="9">
+        <f>B4/(B2*B7)</f>
+        <v>41.989116133258747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>15999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>339117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9">
+        <f>B13/B12</f>
+        <v>21.196137258578663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>436235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1532214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B18*10^3/B17</f>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B24/B23</f>
+        <v>155.63157894736841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6">
+        <v>16805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6">
+        <v>11129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="6">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B33" s="6">
+        <f>B27/B30</f>
+        <v>24.532846715328468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B34" s="6">
+        <f t="shared" ref="B34:B35" si="0">B28/B31</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>33.023738872403563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="25"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="B36" s="6">
+        <f>(B25*B24+B33*B27+B34*B28+B35*B29)/SUM(B24,B27:B29)</f>
+        <v>48.656731685074099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>278918700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>278352300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>47539400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="6">
+        <f>(B42*B39+B43*B40+B44*B41)/SUM(B39:B41)</f>
+        <v>827.5211879623763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="6">
+        <v>32052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="6">
+        <f>SUM(2967,619,100)</f>
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6">
+        <f>SUM(B46:B47)</f>
+        <v>35738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="16">
+        <v>15</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="16">
+        <f>B45*B48*B49</f>
+        <v>443609283.23099107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="6">
+        <f>SUM(B39:B41)*1000/B50</f>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>13611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="11">
+        <v>17287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="7">
+        <f>B55/B54</f>
+        <v>1.2700756740871355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="10"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="11">
+        <v>1670994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2640170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="7">
+        <f>B60/B59</f>
+        <v>1.579999688807979</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B51 B36" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AK7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2025</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2027</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="R1" s="5">
+        <v>2031</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="T1" s="5">
+        <v>2033</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="5">
+        <v>2035</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="X1" s="5">
+        <v>2037</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>2039</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!B6</f>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="57.95" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>66</v>
+      <c r="C2" s="7">
+        <f>$B2</f>
+        <v>1.4</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:AK7" si="0">$B2</f>
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="K2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="M2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="N2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="O2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="P2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="R2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="S2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="T2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="U2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="V2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="W2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="X2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="Y2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="Z2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AC2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AD2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AE2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AF2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AG2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AH2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AI2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AJ2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AK2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <f>AVERAGE('Mexico Psgr LDVs, Psgr HDVs'!B8:B9,'Mexico Psgr LDVs, Psgr HDVs'!B11)</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:R7" si="1">$B3</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="W3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="X3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="Y3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="Z3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AA3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AB3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AC3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AD3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AE3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AH3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AI3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AK3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <f>'BTS NTS Modal Profile Data'!B8</f>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AA4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AE4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AH4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AI4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AK4" s="7">
+        <f t="shared" si="0"/>
+        <v>111.39416306433705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <f>'Mexican Subway'!A30</f>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="Z5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AB5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AC5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AD5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AE5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AF5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AG5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AH5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AI5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AJ5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="AK5" s="6">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <f>'BTS NTS Modal Profile Data'!B56</f>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AA7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AB7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AC7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AD7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AE7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AI7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AK7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
       </c>
     </row>
   </sheetData>
@@ -3349,105 +6488,997 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" s="1" customFormat="1">
+      <c r="B1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:R7" si="0">$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="D2:AJ7" si="1">$B2</f>
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="9">
+        <f>'Mexico Freight Activity'!U19</f>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" si="0"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="Y3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AA3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AB3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AD3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AE3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AF3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AG3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AH3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AI3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+      <c r="AJ3" s="9">
+        <f t="shared" si="1"/>
+        <v>18.688701712465154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B4" s="6">
+        <f>'BTS NTS Modal Profile Data'!B9</f>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="U4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="V4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="X4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="Z4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AA4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AB4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AC4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AD4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AE4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AF4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AG4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AH4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AI4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AJ4" s="6">
+        <f t="shared" si="1"/>
+        <v>41.989116133258747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" s="6">
+        <f>'BTS NTS Modal Profile Data'!B19</f>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="Z5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AB5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AC5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AD5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AE5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AF5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AG5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AH5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AI5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AJ5" s="6">
+        <f t="shared" si="1"/>
+        <v>3512.35916421195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19">
-        <f>'Occupancy rate'!B2</f>
-        <v>1.2</v>
-      </c>
-      <c r="C2">
+      <c r="B6" s="6">
+        <f>'BTS NTS Modal Profile Data'!B51</f>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AB6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AC6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AD6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AE6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AF6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AG6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AI6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+      <c r="AJ6" s="6">
+        <f t="shared" si="1"/>
+        <v>1363.3853547764243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="19">
-        <f>AVERAGE('Passenger Loading by City'!B8:B9,'Passenger Loading by City'!B11)</f>
-        <v>35.666666666666664</v>
-      </c>
-      <c r="C3" s="19">
-        <f>'Domestic Freight Activity'!U19</f>
-        <v>18.688701712465154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+      <c r="C7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="D7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <f>9*'Passenger Loading by City'!B10</f>
-        <v>900</v>
-      </c>
-      <c r="C5">
+      <c r="E7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
-        <f>'Passenger Loading by City'!B15</f>
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\AVLo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/trans/AVLo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FE8474-B543-234B-8C9F-6B28AE5E40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="7320" yWindow="500" windowWidth="26280" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BTS NTS Modal Profile Data" sheetId="3" r:id="rId2"/>
-    <sheet name="AVLo-passengers" sheetId="2" r:id="rId3"/>
-    <sheet name="AVLo-freight" sheetId="4" r:id="rId4"/>
+    <sheet name="Mexico Psgr LDVs, Psgr HDVs" sheetId="5" r:id="rId3"/>
+    <sheet name="Mexican Subway" sheetId="6" r:id="rId4"/>
+    <sheet name="Mexico Freight Activity" sheetId="7" r:id="rId5"/>
+    <sheet name="AVLo-passengers" sheetId="2" r:id="rId6"/>
+    <sheet name="AVLo-freight" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -28,49 +32,1603 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>NATS</author>
+  </authors>
+  <commentList>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{9260F14F-959F-014B-8F7D-DA5243947137}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{01B09426-5B0E-A04D-9F89-CAC8B56A6736}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{155B5516-D975-3945-A5D7-DC2AE3AB323D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0" shapeId="0" xr:uid="{5E1BEC7D-A68F-594E-B184-D797FBEFBB21}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{444CB2C5-DE9A-5E4F-A4A1-5C1FD7FE4227}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{23388D31-0682-B247-8F54-961B8C8BD1F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{C6D6C722-57CD-B644-9520-78E13D555505}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{183E42DA-01A0-0A4A-B6AB-A8C13F4715CD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{13CCEC42-19CE-A04F-B840-39232A9DC391}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{730F20B2-A2AB-9C49-B844-8F4382290025}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{99F54B93-8926-B747-8BCA-E11B8BE68A45}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{14F9CFD3-7FA3-8B49-B57B-689AA3D6C23F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{63DCE967-4DAD-4544-A9F0-F739820116E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{4B673E56-460D-8F4E-B328-D5A684C20575}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{AE26B2D6-DC32-994A-A502-A9F0EE57C23B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{B1A5421D-40BF-F74E-B08A-D9C7E13B1112}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{78E831B0-2719-564A-B85E-3F776A9F8EEC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{BE27DD45-BFE1-AD47-8284-C37E0F38E177}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{C48AEC69-0955-A542-9240-7B1DFC0FB5E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{CE0BB372-8D32-B74D-8894-464FC81B530F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{28AE8A7C-DDF2-394D-827A-AAECF6F4B864}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{C30A7F8B-AEDF-284C-B46C-6C5181B6429C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R10" authorId="0" shapeId="0" xr:uid="{CC28BAE9-2090-8A4B-9227-4327C67C29C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{440A1E77-DD73-7442-8B97-D6D45BA6DE10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0" shapeId="0" xr:uid="{86DD5A62-6888-954C-86E1-EE8D7056B23C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{A0ECB81D-4BD5-6C4F-9395-B340FB8516AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V10" authorId="0" shapeId="0" xr:uid="{84826568-BBDC-7B49-99A8-16760EB9CD25}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{6BD18BBA-7F85-9F4B-A68B-4D1629E1F879}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Commercially navigable.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{45FD67FF-559E-2E41-8B0F-FE205850DE9B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{90A0A465-187A-C249-B3CB-D061E577C7CC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{67F25D65-DB8A-D746-B777-76BEDE0650BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{B26F74E4-2E71-664B-BAF3-E765DDD8172B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{96A7E4C6-E508-B944-A3BF-04028B37663A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{D2CC1467-DFCC-3C47-9A42-BA6B44474E0F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{11130009-0257-954A-BE5B-14499DE4728A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{16C2EB29-0630-C540-9CCF-ABD9DC67959D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{6EC7B042-6C17-3D4D-B74E-2DA2BFE6295C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{C81F484E-0DB6-E54F-A947-E04B1D7F90F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{BA88E4D7-D6DE-DF4C-BF39-8FC59C5D7852}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{7FEAD276-1CF5-6B41-A482-EA094F2ECAEC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{0DF2C137-0A3A-5845-B800-AB91FBE9EB53}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{5CD3286B-EAEF-FE48-A189-F60729742812}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{053A4EE6-E37B-E14B-B598-3BDC89C1FD3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{38366A50-06CF-3B48-8631-39886503051D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{9CE2F205-80F2-094E-8CC6-208365DD5996}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S11" authorId="0" shapeId="0" xr:uid="{E5EE8961-A70F-A54F-8BCE-3E65077CF49D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T11" authorId="0" shapeId="0" xr:uid="{333B1EBD-A555-634C-9CCC-150E3D78A130}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U11" authorId="0" shapeId="0" xr:uid="{572ED2DB-D90F-BB48-B35D-6696E6C32BCD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V11" authorId="0" shapeId="0" xr:uid="{5EC5979B-FB73-FA48-AFCB-6AB98F1AD916}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{BB42B2E7-B0CC-DB48-9CCA-55480849C5E2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{305883B1-EA1D-F149-8CF8-2F29086E559F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{C931F9A9-59F3-5443-BFD2-AF993B2BD45B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{86A2E5B2-104D-D549-86FD-46D15615CD66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{B0C89402-DE88-7446-9BD9-5D7C3750EFE2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{2BF5ACAD-5158-B042-A501-13664C7C1FDD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{27DB2AF7-2DD2-7D47-9D09-4558DB06B539}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{620E91DB-700F-4047-BB5F-E1AECC61AB75}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{3C68C9AE-F3B2-D44A-A946-D77A0F2F22A1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{D0C2B922-8A67-FB4D-8F4A-86F9E98A7CC3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{02B938F6-57B6-F241-9993-5B8F74E14F89}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{67C50DEC-3DCD-C740-AFFC-B8F4773B3FD6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{7FED24BB-84B2-F043-AB06-56115A316926}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{DADC3594-0300-AC47-9C23-FF18400910A4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{343D75E6-9E58-2543-A821-C74E66E4308B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{2453B9D2-DBE5-BA45-AA3A-414AA4E943FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{DABAC97C-E31C-0741-A180-77C3182A27B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S12" authorId="0" shapeId="0" xr:uid="{F35A5485-786E-1740-961E-6E1CE76D8609}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T12" authorId="0" shapeId="0" xr:uid="{AA9EB1AA-1FDD-9D43-B681-604C9B92F984}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U12" authorId="0" shapeId="0" xr:uid="{B74BF171-56AB-7346-B09E-E37DC5A4A58D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="0" shapeId="0" xr:uid="{0432057B-34F4-BF49-8C5E-8D15A4711BBD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{361AEF00-4567-2742-84E4-9F39565AA83C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{862C06BB-08EA-D44E-846E-92E6E7B2860D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{FB534D3F-073A-C14C-8F30-9113E5F20EB1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{8DA2FF7C-9222-974D-8E20-126F901ACCFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{B30A3D85-A6AB-9D4E-B5F2-427A9E733E5C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{C22C8E72-FE67-5341-8CA3-2F03939CFDE4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{D6F89524-2CF1-E14D-8F08-F0EFFF6CB0A0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{21A32149-74E7-454E-A5A6-8DBD9F868BFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{7AC44A40-99FE-EA46-87F3-6F11B3D63A60}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{EEDB5B43-48AF-5241-8D8C-CB87B83D43A9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{78D65429-A5D4-B344-800A-96421B3190C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{C6D9BFFB-0A85-1944-9FC6-1C01F5FD3BC9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{97F0D1F8-2CB7-854A-990E-3466B6479979}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{4692B749-263A-8D46-A846-2D44D76F5FF8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{FC827E1B-9C0B-A547-B697-13965C4171A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{389BCB52-C5F7-D04C-9C9B-CDB2104D491E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{9FA2D207-11D2-9047-82B9-3ACD21022FA4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{C895A3F3-937B-E24D-9E11-CA898C66C144}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0" shapeId="0" xr:uid="{316B6647-DB27-F54C-B20D-82D86924FE45}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U13" authorId="0" shapeId="0" xr:uid="{7C815B16-4024-394A-B1DE-25EC74A79A6A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="0" shapeId="0" xr:uid="{6D1C08E2-282D-A44C-8BFC-D232C269E90B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{DDDFD7F4-0830-3C42-834A-109ECC2032B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{DFA6BC4A-2F8B-4445-9D7D-1FAAB9E24EAA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{D1985485-85F2-F440-AFE9-112C08055BBE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{8D184DD2-8805-D740-BF28-361815D7FFA4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{62A4A7B2-0D2A-D449-B377-353ABBA5EBAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{2A75C079-9996-0241-A746-C86294E07E50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{219A4494-CAEF-7C49-836B-2ADCB329E249}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{A0829333-5913-1D48-8DD0-28B648AAA3E2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{4B0D2D5F-57F9-DD46-ACB5-BF7998DA9912}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{50DD84DD-EC54-FC4F-9A9C-D9B227C3D6B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{E2B27D04-F1FD-294B-83CC-86DF237D80A3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{A3B54CCC-48E5-564F-99C5-EC088892ED05}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{9B2F1061-0887-F74A-95D8-9E080D931893}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{3AFB2D05-044A-2D44-A108-A8AA3C1A9372}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{33D0AD0E-EF98-874D-8F48-33F585312FD9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{58D024CD-3282-F147-84D1-90CEEACB997B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{77E77E6A-954A-494E-BC0F-396D13B53017}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S14" authorId="0" shapeId="0" xr:uid="{0ACFD1FA-F845-A841-A08A-B959FB9BB200}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T14" authorId="0" shapeId="0" xr:uid="{17A1ED2F-8692-184D-8B19-59FC8C8CEEDB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U14" authorId="0" shapeId="0" xr:uid="{6A92C4D4-D546-934B-A0AA-1A49FF7C40DD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{6960C914-8793-9D40-9B19-5A4169FACA6F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Data are unavailable</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="179">
   <si>
     <t>AVLo Average Vehicle Loading</t>
   </si>
   <si>
-    <t>passenger LDVs</t>
-  </si>
-  <si>
-    <t>U.S. Federal Highway Administration</t>
-  </si>
-  <si>
-    <t>2009 National Household Travel Survey</t>
-  </si>
-  <si>
-    <t>http://nhts.ornl.gov/2009/pub/stt.pdf</t>
-  </si>
-  <si>
-    <t>Page 33, Table 16</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
-    <t>freight HDVs</t>
-  </si>
-  <si>
-    <t>U.S. DOT FHA Office of Freight Management and Operations</t>
-  </si>
-  <si>
-    <t>Major Freight Corridors</t>
-  </si>
-  <si>
-    <t>http://ops.fhwa.dot.gov/freight/freight_analysis/freight_story/major.htm</t>
-  </si>
-  <si>
-    <t>Second bullet point on webpage (and Fig. 8 image caption)</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -372,23 +1930,262 @@
   </si>
   <si>
     <t>Vehicle Loading (tons)</t>
+  </si>
+  <si>
+    <t>passenger LDVs, passenger HDVs</t>
+  </si>
+  <si>
+    <t>National Institute of Statistics and Geography (INEGI)</t>
+  </si>
+  <si>
+    <t>Programa Integral de Transporte y Vialidad 2007 - 2012 (PDF)</t>
+  </si>
+  <si>
+    <t>http://bicitekas.org/wp/wp-content/uploads/2013/07/2007_Encuesta_Origen_Destino_INEGI.pdf</t>
+  </si>
+  <si>
+    <t>Page 63</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>http://data.metro.cdmx.gob.mx/operacion/index.html</t>
+  </si>
+  <si>
+    <t>freight HDVs - tons transported</t>
+  </si>
+  <si>
+    <t>North American Transportation Statistics (NATS)</t>
+  </si>
+  <si>
+    <t>http://nats.sct.gob.mx/go-to-tables/table-5-domestic-freight-activity/table-5-1-domestic-freight-activity-by-mode-tons/</t>
+  </si>
+  <si>
+    <t>Table 5-1</t>
+  </si>
+  <si>
+    <t>freight HDVs - number of vehicles</t>
+  </si>
+  <si>
+    <t>Vehículos de motor registrados en circulación</t>
+  </si>
+  <si>
+    <t>http://www.inegi.org.mx/est/lista_cubos/consulta.aspx?p=adm&amp;c=8</t>
+  </si>
+  <si>
+    <t>Values in red are estimated based on average distances traveled by mode.</t>
+  </si>
+  <si>
+    <t>Mortorcicle</t>
+  </si>
+  <si>
+    <t>Pedrestian</t>
+  </si>
+  <si>
+    <t>Biclycle</t>
+  </si>
+  <si>
+    <t>Electric bus</t>
+  </si>
+  <si>
+    <t>BRT</t>
+  </si>
+  <si>
+    <t>Subway car (9 per train)</t>
+  </si>
+  <si>
+    <t>Intercity bus</t>
+  </si>
+  <si>
+    <t>Intracity bus</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Passenger vehicle</t>
+  </si>
+  <si>
+    <t>Occupacy rate</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>ZM Valle de México</t>
+  </si>
+  <si>
+    <t>Ciudad o Zona Metro</t>
+  </si>
+  <si>
+    <t>EOD Zona Metropolitana del Valle de México 2007</t>
+  </si>
+  <si>
+    <t>Fuente de datos del Documento</t>
+  </si>
+  <si>
+    <t>Programa Integral de Transporte y Vialidad 2007 - 2012</t>
+  </si>
+  <si>
+    <t>Documento fuente</t>
+  </si>
+  <si>
+    <t>Average Train Loading</t>
+  </si>
+  <si>
+    <t>Assumed Average Loading Factor</t>
+  </si>
+  <si>
+    <t>9 vagones</t>
+  </si>
+  <si>
+    <t>7 vagones</t>
+  </si>
+  <si>
+    <t>6 vagones</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing </t>
+  </si>
+  <si>
+    <t>Sitting</t>
+  </si>
+  <si>
+    <t>Tren</t>
+  </si>
+  <si>
+    <t>PAX / TRAIN</t>
+  </si>
+  <si>
+    <t>Como parte de los 11 compromisos para mejorar el servicio anunciados por el Jefe de Gobierno del Distrito Federal, se han reparado 18 trenes que se encontraban fuera de servicio, incorporándose a la operación de las Líneas 1, 3, 5, 7, 8, 9, A y B.</t>
+  </si>
+  <si>
+    <t>Con objeto de proporcionar un mejor servicio, el STC modificó trenes de 6 carros por trenes de 9 carros con el fin de incrementar la frecuencia del paso de los convoyes.</t>
+  </si>
+  <si>
+    <t>Nota: La cantidad de trenes por línea puede variar por una redistribución del parque vehicular en función de las necesidades del servicio.</t>
+  </si>
+  <si>
+    <t>Trains</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>La red del STC tiene un total de 390 trenes asignados (321 neumáticos y 69 férreos), para proporcionar el servicio a los usuarios en horas punta, se tiene un polígono de operación de 282 trenes, los 108 trenes restantes se encuentran distribuidos en mantenimiento sistemático, mantenimiento mayor, rehabilitación, proyectos especiales y como reserva.</t>
+  </si>
+  <si>
+    <t>TRAINS / LINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDMX Metro </t>
+  </si>
+  <si>
+    <t>Avg loading</t>
+  </si>
+  <si>
+    <t>Total of vehicles (INEGI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Natural gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Crude oil and petroleum products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Inland waterways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Great Lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Coastal shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Water transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Air</t>
+  </si>
+  <si>
+    <t>Hierarchies</t>
+  </si>
+  <si>
+    <t>Country:   Mexico</t>
+  </si>
+  <si>
+    <t>Table 5 - 1:   Domestic Freight Activity by Mode (tons) (Millions of metric tons)</t>
+  </si>
+  <si>
+    <t>Section 5:   Domestic Freight Activity</t>
+  </si>
+  <si>
+    <t>North American Transportation Statistics</t>
+  </si>
+  <si>
+    <t>unidades carga</t>
+  </si>
+  <si>
+    <t>miles de toneladas</t>
+  </si>
+  <si>
+    <t>2017 INEGI</t>
+  </si>
+  <si>
+    <t>INEGI</t>
+  </si>
+  <si>
+    <t>https://www.inegi.org.mx/app/indicadores/?tm=0</t>
+  </si>
+  <si>
+    <t>BIE - Banco de información económica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="###0.00_)"/>
     <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="58">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -631,8 +2428,113 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFE7827"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF303030"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFE7827"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +2684,41 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
       </patternFill>
     </fill>
   </fills>
@@ -988,272 +2925,274 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="154">
+  <cellStyleXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5">
+    <xf numFmtId="49" fontId="24" fillId="26" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="26" borderId="12">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1264,176 +3203,235 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="43" fillId="30" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="44" fillId="30" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="155"/>
+    <xf numFmtId="1" fontId="1" fillId="34" borderId="0" xfId="155" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="155" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="155" applyFont="1"/>
+    <xf numFmtId="168" fontId="44" fillId="34" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent2 2" xfId="3"/>
-    <cellStyle name="20% - Accent3 2" xfId="4"/>
-    <cellStyle name="20% - Accent4 2" xfId="5"/>
-    <cellStyle name="20% - Accent5 2" xfId="6"/>
-    <cellStyle name="20% - Accent6 2" xfId="7"/>
-    <cellStyle name="40% - Accent1 2" xfId="8"/>
-    <cellStyle name="40% - Accent2 2" xfId="9"/>
-    <cellStyle name="40% - Accent3 2" xfId="10"/>
-    <cellStyle name="40% - Accent4 2" xfId="11"/>
-    <cellStyle name="40% - Accent5 2" xfId="12"/>
-    <cellStyle name="40% - Accent6 2" xfId="13"/>
-    <cellStyle name="60% - Accent1 2" xfId="14"/>
-    <cellStyle name="60% - Accent2 2" xfId="15"/>
-    <cellStyle name="60% - Accent3 2" xfId="16"/>
-    <cellStyle name="60% - Accent4 2" xfId="17"/>
-    <cellStyle name="60% - Accent5 2" xfId="18"/>
-    <cellStyle name="60% - Accent6 2" xfId="19"/>
-    <cellStyle name="Accent1 2" xfId="20"/>
-    <cellStyle name="Accent2 2" xfId="21"/>
-    <cellStyle name="Accent3 2" xfId="22"/>
-    <cellStyle name="Accent4 2" xfId="23"/>
-    <cellStyle name="Accent5 2" xfId="24"/>
-    <cellStyle name="Accent6 2" xfId="25"/>
-    <cellStyle name="Bad 2" xfId="26"/>
-    <cellStyle name="Body: normal cell" xfId="27"/>
-    <cellStyle name="Body: normal cell 2" xfId="28"/>
-    <cellStyle name="Calculation 2" xfId="29"/>
-    <cellStyle name="Check Cell 2" xfId="30"/>
-    <cellStyle name="Column heading" xfId="31"/>
-    <cellStyle name="Comma 2" xfId="32"/>
-    <cellStyle name="Comma 2 2" xfId="33"/>
-    <cellStyle name="Comma 3" xfId="34"/>
-    <cellStyle name="Comma 4" xfId="35"/>
-    <cellStyle name="Comma 5" xfId="36"/>
-    <cellStyle name="Comma 6" xfId="37"/>
-    <cellStyle name="Comma 7" xfId="38"/>
-    <cellStyle name="Comma 8" xfId="39"/>
-    <cellStyle name="Corner heading" xfId="40"/>
-    <cellStyle name="Currency 2" xfId="41"/>
-    <cellStyle name="Currency 3" xfId="42"/>
-    <cellStyle name="Currency 3 2" xfId="43"/>
-    <cellStyle name="Data" xfId="44"/>
-    <cellStyle name="Data 2" xfId="45"/>
-    <cellStyle name="Data no deci" xfId="46"/>
-    <cellStyle name="Data Superscript" xfId="47"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="48"/>
-    <cellStyle name="Explanatory Text 2" xfId="49"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="50"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="51"/>
-    <cellStyle name="Footnotes: top row" xfId="52"/>
-    <cellStyle name="Footnotes: top row 2" xfId="53"/>
-    <cellStyle name="Good 2" xfId="54"/>
-    <cellStyle name="Header: bottom row" xfId="55"/>
-    <cellStyle name="Header: bottom row 2" xfId="56"/>
-    <cellStyle name="Heading 1 2" xfId="57"/>
-    <cellStyle name="Heading 2 2" xfId="58"/>
-    <cellStyle name="Heading 3 2" xfId="59"/>
-    <cellStyle name="Heading 4 2" xfId="60"/>
-    <cellStyle name="Hed Side" xfId="61"/>
-    <cellStyle name="Hed Side 2" xfId="62"/>
-    <cellStyle name="Hed Side bold" xfId="63"/>
-    <cellStyle name="Hed Side Indent" xfId="64"/>
-    <cellStyle name="Hed Side Regular" xfId="65"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="66"/>
-    <cellStyle name="Hed Top" xfId="67"/>
-    <cellStyle name="Hed Top - SECTION" xfId="68"/>
-    <cellStyle name="Hed Top_3-new4" xfId="69"/>
+  <cellStyles count="156">
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 3" xfId="154" xr:uid="{934F833B-CDA7-8745-A3CB-8706A4934B1D}"/>
+    <cellStyle name="Comma 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="46" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="47" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="48" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="50" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="63" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="64" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="65" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="67" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="68" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="69" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="70"/>
-    <cellStyle name="Input 2" xfId="71"/>
-    <cellStyle name="Linked Cell 2" xfId="72"/>
-    <cellStyle name="Neutral 2" xfId="73"/>
+    <cellStyle name="Hyperlink 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Neutral 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="74"/>
-    <cellStyle name="Normal 11" xfId="75"/>
-    <cellStyle name="Normal 2" xfId="76"/>
-    <cellStyle name="Normal 2 2" xfId="77"/>
-    <cellStyle name="Normal 2 3" xfId="78"/>
-    <cellStyle name="Normal 3" xfId="79"/>
-    <cellStyle name="Normal 3 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 3" xfId="83"/>
-    <cellStyle name="Normal 3 3" xfId="84"/>
-    <cellStyle name="Normal 3 3 2" xfId="85"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 3" xfId="87"/>
-    <cellStyle name="Normal 3 4" xfId="88"/>
-    <cellStyle name="Normal 3 4 2" xfId="89"/>
-    <cellStyle name="Normal 3 5" xfId="90"/>
-    <cellStyle name="Normal 3 6" xfId="91"/>
-    <cellStyle name="Normal 3 7" xfId="92"/>
-    <cellStyle name="Normal 4" xfId="93"/>
-    <cellStyle name="Normal 4 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 3" xfId="97"/>
-    <cellStyle name="Normal 4 3" xfId="98"/>
-    <cellStyle name="Normal 4 3 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 3" xfId="101"/>
-    <cellStyle name="Normal 4 4" xfId="102"/>
-    <cellStyle name="Normal 4 4 2" xfId="103"/>
-    <cellStyle name="Normal 4 5" xfId="104"/>
-    <cellStyle name="Normal 4 6" xfId="105"/>
-    <cellStyle name="Normal 4 7" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 7 2" xfId="113"/>
-    <cellStyle name="Normal 8" xfId="114"/>
-    <cellStyle name="Normal 9" xfId="115"/>
-    <cellStyle name="Note 2" xfId="116"/>
-    <cellStyle name="Note 2 2" xfId="117"/>
-    <cellStyle name="Output 2" xfId="118"/>
-    <cellStyle name="Parent row" xfId="119"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="139"/>
-    <cellStyle name="Table title 2" xfId="140"/>
-    <cellStyle name="Title 2" xfId="141"/>
-    <cellStyle name="Title Text" xfId="142"/>
-    <cellStyle name="Title Text 1" xfId="143"/>
-    <cellStyle name="Title Text 2" xfId="144"/>
-    <cellStyle name="Title-1" xfId="145"/>
-    <cellStyle name="Title-2" xfId="146"/>
-    <cellStyle name="Title-3" xfId="147"/>
-    <cellStyle name="Total 2" xfId="148"/>
-    <cellStyle name="Warning Text 2" xfId="149"/>
-    <cellStyle name="Wrap" xfId="150"/>
-    <cellStyle name="Wrap Bold" xfId="151"/>
-    <cellStyle name="Wrap Title" xfId="152"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="153"/>
+    <cellStyle name="Normal 10" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 11" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 12" xfId="155" xr:uid="{689EB6C2-DC60-7046-9FBE-027D428C6A86}"/>
+    <cellStyle name="Normal 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 1" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-1" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-2" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-3" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Warning Text 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Bold" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Title" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1605,6 +3603,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1640,6 +3655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1815,17 +3847,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="85.1328125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="85.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1835,266 +3867,310 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="2">
-        <v>2008</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>11</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
-        <v>64</v>
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>65</v>
+      <c r="B18" s="2">
+        <v>2015</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="2">
-        <v>2016</v>
+      <c r="B19" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>66</v>
+      <c r="B22" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="14" t="s">
-        <v>68</v>
+      <c r="B23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="14" t="s">
-        <v>69</v>
+      <c r="B24" s="2">
+        <v>2013</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="14" t="s">
-        <v>70</v>
+      <c r="B25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="14" t="s">
-        <v>72</v>
+      <c r="B26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="14" t="s">
-        <v>73</v>
+      <c r="B28" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="14"/>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="18" t="s">
-        <v>81</v>
+      <c r="B30" s="2">
+        <v>2016</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="2">
-        <v>2013</v>
+      <c r="B32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>84</v>
+      <c r="B34" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>85</v>
+      <c r="B35" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
+      <c r="B37" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>86</v>
+      <c r="B38" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
+      <c r="B39" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>88</v>
+      <c r="B41" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>109</v>
+      <c r="B42" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>110</v>
+      <c r="B43" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>105</v>
+      <c r="B45" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>107</v>
+      <c r="B46" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>108</v>
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{087F94C5-9019-654A-9753-D541852242E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.59765625" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="102.265625" customWidth="1"/>
+    <col min="3" max="3" width="102.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4">
         <v>2006</v>
@@ -2102,7 +4178,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>8218378</v>
@@ -2110,7 +4186,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>810106273</v>
@@ -2118,7 +4194,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>39719513</v>
@@ -2126,7 +4202,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>7880</v>
@@ -2134,7 +4210,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>907</v>
@@ -2142,19 +4218,19 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8">
         <f>B6/B5</f>
         <v>0.11510152284263959</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9">
         <f>B3/(B2*(1-B7))</f>
@@ -2163,7 +4239,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9">
         <f>B4/(B2*B7)</f>
@@ -2172,7 +4248,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>2014</v>
@@ -2180,7 +4256,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>15999</v>
@@ -2188,7 +4264,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>339117</v>
@@ -2196,7 +4272,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9">
         <f>B13/B12</f>
@@ -2205,7 +4281,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>2009</v>
@@ -2213,7 +4289,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>436235</v>
@@ -2221,7 +4297,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1532214</v>
@@ -2229,25 +4305,25 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6">
         <f>B18*10^3/B17</f>
         <v>3512.35916421195</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B22" s="12">
         <v>2009</v>
@@ -2255,7 +4331,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>38</v>
@@ -2263,7 +4339,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>5914</v>
@@ -2271,7 +4347,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <f>B24/B23</f>
@@ -2280,7 +4356,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B26" s="12">
         <v>2009</v>
@@ -2288,7 +4364,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>16805</v>
@@ -2296,7 +4372,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>2196</v>
@@ -2304,7 +4380,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>11129</v>
@@ -2312,7 +4388,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>685</v>
@@ -2320,7 +4396,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>90</v>
@@ -2328,7 +4404,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6">
         <v>337</v>
@@ -2336,7 +4412,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6">
         <f>B27/B30</f>
@@ -2345,7 +4421,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" ref="B34:B35" si="0">B28/B31</f>
@@ -2354,16 +4430,16 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>33.023738872403563</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="16">
       <c r="A36" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6">
         <f>(B25*B24+B33*B27+B34*B28+B35*B29)/SUM(B24,B27:B29)</f>
@@ -2372,7 +4448,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B38" s="4">
         <v>2005</v>
@@ -2380,7 +4456,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B39" s="15">
         <v>2967</v>
@@ -2388,7 +4464,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B40" s="15">
         <v>100</v>
@@ -2396,35 +4472,35 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B41" s="15">
         <v>27876</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B42" s="15">
         <v>4151</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="15"/>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B44" s="15">
         <v>6614973</v>
@@ -2432,7 +4508,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B45" s="15">
         <v>5727512</v>
@@ -2440,7 +4516,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B46" s="15">
         <v>44777151</v>
@@ -2448,7 +4524,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B47" s="15">
         <v>12172542</v>
@@ -2459,7 +4535,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B49" s="15">
         <f>B44/B39</f>
@@ -2468,7 +4544,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B50" s="15">
         <f>B45/B40</f>
@@ -2477,7 +4553,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B51" s="15">
         <f t="shared" ref="B51:B52" si="1">B46/B41</f>
@@ -2486,7 +4562,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
@@ -2498,7 +4574,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B54" s="15">
         <f>SUMPRODUCT(B39:B42,B49:B52)/SUM(B39:B42)</f>
@@ -2510,7 +4586,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B56" s="13">
         <v>2007</v>
@@ -2518,7 +4594,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>13611</v>
@@ -2526,15 +4602,15 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B58" s="11">
         <v>17287</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="16">
       <c r="A59" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B59" s="7">
         <f>B58/B57</f>
@@ -2546,7 +4622,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B61" s="4">
         <v>2007</v>
@@ -2554,7 +4630,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B62" s="11">
         <v>1670994</v>
@@ -2562,7 +4638,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B63" s="6">
         <v>2640170</v>
@@ -2570,14 +4646,14 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B64" s="7">
         <f>B63/B62</f>
         <v>1.579999688807979</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -2599,1023 +4675,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AK7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA00269-0F7E-F942-A069-1C02F2F8B315}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" customWidth="1"/>
+    <col min="1" max="2" width="22.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75">
-      <c r="A1" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="5">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D1" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2019</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H1" s="5">
-        <v>2021</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="J1" s="5">
-        <v>2023</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="L1" s="5">
-        <v>2025</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="N1" s="5">
-        <v>2027</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="P1" s="5">
-        <v>2029</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="R1" s="5">
-        <v>2031</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="T1" s="5">
-        <v>2033</v>
-      </c>
-      <c r="U1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="V1" s="5">
-        <v>2035</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2036</v>
-      </c>
-      <c r="X1" s="5">
-        <v>2037</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2038</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>2039</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>2040</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>2041</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2042</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>2043</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>2045</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>2047</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AJ1" s="5">
-        <v>2049</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="C2" s="7">
-        <f>$B2</f>
-        <v>1.67</v>
-      </c>
-      <c r="D2" s="7">
-        <f t="shared" ref="D2:AK7" si="0">$B2</f>
-        <v>1.67</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="F2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="G2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="H2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="I2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="J2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="K2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="M2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="N2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="O2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="P2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="Q2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="R2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="S2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="T2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="U2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="V2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="W2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="X2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="Y2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="Z2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AA2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AB2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AC2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AD2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AE2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AF2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AG2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AH2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AI2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AJ2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="AK2" s="7">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9">
-        <f>'BTS NTS Modal Profile Data'!B14</f>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="C3" s="7">
-        <f t="shared" ref="C3:R7" si="1">$B3</f>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="M3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="N3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="O3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="P3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="Q3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="R3" s="7">
-        <f t="shared" si="1"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="S3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="U3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="V3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="W3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="X3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="Y3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="Z3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AA3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AB3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AC3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AD3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AE3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AF3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AG3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AH3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AI3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AJ3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-      <c r="AK3" s="7">
-        <f t="shared" si="0"/>
-        <v>21.196137258578663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="9">
-        <f>'BTS NTS Modal Profile Data'!B8</f>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="K4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="P4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="R4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="S4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="T4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="U4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="V4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="W4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="X4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="Y4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="Z4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AA4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AB4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AC4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AD4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AE4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AF4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AG4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AH4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AI4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AJ4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-      <c r="AK4" s="7">
-        <f t="shared" si="0"/>
-        <v>111.39416306433705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:2" ht="48">
+      <c r="A1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32">
+      <c r="A2" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="20">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
-        <f>'BTS NTS Modal Profile Data'!B36</f>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="W5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="X5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="Y5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AA5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AB5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AC5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AG5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AH5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AI5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AJ5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AK5" s="7">
-        <f t="shared" si="0"/>
-        <v>48.656731685074099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AH6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7">
-        <f>'BTS NTS Modal Profile Data'!B59</f>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="M7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="S7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="T7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="U7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="V7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="W7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="X7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="Y7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="Z7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AA7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AB7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AC7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AE7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AF7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AG7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AH7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AI7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AJ7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
-      </c>
-      <c r="AK7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2700756740871355</v>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="10" customFormat="1">
+      <c r="A17" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3624,22 +4814,1997 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DC414D-49B1-C248-966E-81312E4F2842}">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="11.6640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17">
+      <c r="B5" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34">
+        <v>2</v>
+      </c>
+      <c r="E7" s="34">
+        <v>3</v>
+      </c>
+      <c r="F7" s="34">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34">
+        <v>5</v>
+      </c>
+      <c r="H7" s="34">
+        <v>6</v>
+      </c>
+      <c r="I7" s="34">
+        <v>7</v>
+      </c>
+      <c r="J7" s="34">
+        <v>8</v>
+      </c>
+      <c r="K7" s="34">
+        <v>9</v>
+      </c>
+      <c r="L7" s="34">
+        <v>12</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="39">
+        <v>49</v>
+      </c>
+      <c r="D8" s="39">
+        <v>40</v>
+      </c>
+      <c r="E8" s="39">
+        <v>50</v>
+      </c>
+      <c r="F8" s="39">
+        <v>12</v>
+      </c>
+      <c r="G8" s="39">
+        <v>25</v>
+      </c>
+      <c r="H8" s="39">
+        <v>17</v>
+      </c>
+      <c r="I8" s="39">
+        <v>33</v>
+      </c>
+      <c r="J8" s="39">
+        <v>30</v>
+      </c>
+      <c r="K8" s="39">
+        <v>29</v>
+      </c>
+      <c r="L8" s="39">
+        <v>30</v>
+      </c>
+      <c r="M8" s="39">
+        <v>39</v>
+      </c>
+      <c r="N8" s="39">
+        <v>36</v>
+      </c>
+      <c r="O8" s="39">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17">
+      <c r="B10" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17">
+      <c r="B13" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17">
+      <c r="B14" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17">
+      <c r="B16" s="37"/>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="B18" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="B19" s="36"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="33">
+        <v>240</v>
+      </c>
+      <c r="D21" s="33">
+        <v>780</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="33">
+        <v>336</v>
+      </c>
+      <c r="D22" s="33">
+        <v>1139</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="33">
+        <v>360</v>
+      </c>
+      <c r="D23" s="33">
+        <v>1170</v>
+      </c>
+      <c r="E23" s="33">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="30">
+        <f>AVERAGE(E21:E23)*A27</f>
+        <v>670.83333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4EBAF0-004B-2547-B4B0-5DE1C8950E91}">
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1">
+      <c r="A3" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="50">
+        <v>1990</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1995</v>
+      </c>
+      <c r="D5" s="50">
+        <v>1996</v>
+      </c>
+      <c r="E5" s="50">
+        <v>1997</v>
+      </c>
+      <c r="F5" s="50">
+        <v>1998</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1999</v>
+      </c>
+      <c r="H5" s="50">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="50">
+        <v>2001</v>
+      </c>
+      <c r="J5" s="50">
+        <v>2002</v>
+      </c>
+      <c r="K5" s="50">
+        <v>2003</v>
+      </c>
+      <c r="L5" s="50">
+        <v>2004</v>
+      </c>
+      <c r="M5" s="50">
+        <v>2005</v>
+      </c>
+      <c r="N5" s="50">
+        <v>2006</v>
+      </c>
+      <c r="O5" s="50">
+        <v>2007</v>
+      </c>
+      <c r="P5" s="50">
+        <v>2008</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>2009</v>
+      </c>
+      <c r="R5" s="50">
+        <v>2010</v>
+      </c>
+      <c r="S5" s="50">
+        <v>2011</v>
+      </c>
+      <c r="T5" s="50">
+        <v>2012</v>
+      </c>
+      <c r="U5" s="50">
+        <v>2013</v>
+      </c>
+      <c r="V5" s="50">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="43">
+        <v>380.1</v>
+      </c>
+      <c r="C6" s="43">
+        <v>429.1</v>
+      </c>
+      <c r="D6" s="43">
+        <v>445.3</v>
+      </c>
+      <c r="E6" s="43">
+        <v>398.4</v>
+      </c>
+      <c r="F6" s="43">
+        <v>457</v>
+      </c>
+      <c r="G6" s="43">
+        <v>468</v>
+      </c>
+      <c r="H6" s="43">
+        <v>483.3</v>
+      </c>
+      <c r="I6" s="43">
+        <v>482.5</v>
+      </c>
+      <c r="J6" s="43">
+        <v>483.7</v>
+      </c>
+      <c r="K6" s="43">
+        <v>489</v>
+      </c>
+      <c r="L6" s="43">
+        <v>496.7</v>
+      </c>
+      <c r="M6" s="43">
+        <v>511.7</v>
+      </c>
+      <c r="N6" s="43">
+        <v>523.4</v>
+      </c>
+      <c r="O6" s="43">
+        <v>548.1</v>
+      </c>
+      <c r="P6" s="43">
+        <v>563.79999999999995</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>529.5</v>
+      </c>
+      <c r="R6" s="43">
+        <v>555.4</v>
+      </c>
+      <c r="S6" s="43">
+        <v>578.79999999999995</v>
+      </c>
+      <c r="T6" s="43">
+        <v>594.5</v>
+      </c>
+      <c r="U6" s="43">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="V6" s="43">
+        <v>611.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="S7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="T7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="U7" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="V7" s="45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="43">
+        <v>30.6</v>
+      </c>
+      <c r="C8" s="43">
+        <v>31.6</v>
+      </c>
+      <c r="D8" s="43">
+        <v>31.7</v>
+      </c>
+      <c r="E8" s="43">
+        <v>30.4</v>
+      </c>
+      <c r="F8" s="43">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G8" s="43">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H8" s="43">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I8" s="43">
+        <v>32.5</v>
+      </c>
+      <c r="J8" s="43">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K8" s="43">
+        <v>35.5</v>
+      </c>
+      <c r="L8" s="43">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="M8" s="43">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="N8" s="43">
+        <v>37.9</v>
+      </c>
+      <c r="O8" s="43">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P8" s="43">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>34</v>
+      </c>
+      <c r="R8" s="43">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="S8" s="43">
+        <v>37.4</v>
+      </c>
+      <c r="T8" s="43">
+        <v>35.4</v>
+      </c>
+      <c r="U8" s="43">
+        <v>36.4</v>
+      </c>
+      <c r="V8" s="43">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="48">
+        <v>30.6</v>
+      </c>
+      <c r="C9" s="48">
+        <v>31.6</v>
+      </c>
+      <c r="D9" s="48">
+        <v>31.7</v>
+      </c>
+      <c r="E9" s="48">
+        <v>30.4</v>
+      </c>
+      <c r="F9" s="48">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G9" s="48">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H9" s="48">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I9" s="48">
+        <v>32.5</v>
+      </c>
+      <c r="J9" s="48">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K9" s="48">
+        <v>35.5</v>
+      </c>
+      <c r="L9" s="48">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="M9" s="48">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="N9" s="48">
+        <v>37.9</v>
+      </c>
+      <c r="O9" s="48">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P9" s="48">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>34</v>
+      </c>
+      <c r="R9" s="48">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="S9" s="48">
+        <v>37.4</v>
+      </c>
+      <c r="T9" s="48">
+        <v>35.4</v>
+      </c>
+      <c r="U9" s="48">
+        <v>36.4</v>
+      </c>
+      <c r="V9" s="48">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="45">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C15" s="45">
+        <v>30.7</v>
+      </c>
+      <c r="D15" s="45">
+        <v>30.2</v>
+      </c>
+      <c r="E15" s="45">
+        <v>35.4</v>
+      </c>
+      <c r="F15" s="45">
+        <v>41.8</v>
+      </c>
+      <c r="G15" s="45">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H15" s="45">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I15" s="45">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J15" s="45">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K15" s="45">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L15" s="45">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M15" s="45">
+        <v>36.9</v>
+      </c>
+      <c r="N15" s="45">
+        <v>40</v>
+      </c>
+      <c r="O15" s="45">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P15" s="45">
+        <v>44.2</v>
+      </c>
+      <c r="Q15" s="45">
+        <v>44.5</v>
+      </c>
+      <c r="R15" s="45">
+        <v>48.1</v>
+      </c>
+      <c r="S15" s="45">
+        <v>55.8</v>
+      </c>
+      <c r="T15" s="45">
+        <v>60.9</v>
+      </c>
+      <c r="U15" s="45">
+        <v>61.6</v>
+      </c>
+      <c r="V15" s="45">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="43">
+        <v>314.7</v>
+      </c>
+      <c r="C16" s="43">
+        <v>366.7</v>
+      </c>
+      <c r="D16" s="43">
+        <v>383.3</v>
+      </c>
+      <c r="E16" s="43">
+        <v>332.5</v>
+      </c>
+      <c r="F16" s="43">
+        <v>380.8</v>
+      </c>
+      <c r="G16" s="43">
+        <v>394.4</v>
+      </c>
+      <c r="H16" s="43">
+        <v>413.2</v>
+      </c>
+      <c r="I16" s="43">
+        <v>409.2</v>
+      </c>
+      <c r="J16" s="43">
+        <v>411.1</v>
+      </c>
+      <c r="K16" s="43">
+        <v>416.2</v>
+      </c>
+      <c r="L16" s="43">
+        <v>426.1</v>
+      </c>
+      <c r="M16" s="43">
+        <v>435.5</v>
+      </c>
+      <c r="N16" s="43">
+        <v>445.4</v>
+      </c>
+      <c r="O16" s="43">
+        <v>473.9</v>
+      </c>
+      <c r="P16" s="43">
+        <v>484.3</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>450.9</v>
+      </c>
+      <c r="R16" s="43">
+        <v>470</v>
+      </c>
+      <c r="S16" s="43">
+        <v>485.5</v>
+      </c>
+      <c r="T16" s="43">
+        <v>498.1</v>
+      </c>
+      <c r="U16" s="43">
+        <v>502.2</v>
+      </c>
+      <c r="V16" s="43">
+        <v>511.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U18" s="42">
+        <f>9385466*3.1</f>
+        <v>29094944.600000001</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="T19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U19" s="41">
+        <f>(U16*1000000)/U18</f>
+        <v>17.260730580665893</v>
+      </c>
+      <c r="X19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="Q20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="Q21">
+        <v>917381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="Q22">
+        <v>546587.99999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="Q24">
+        <f>Q22*1000/Q21</f>
+        <v>595.81351695751266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AK7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="48">
+      <c r="A1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2025</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2027</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="R1" s="5">
+        <v>2031</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="T1" s="5">
+        <v>2033</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="5">
+        <v>2035</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="X1" s="5">
+        <v>2037</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>2039</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="C2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="D2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="H2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="I2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="K2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="L2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="M2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="N2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="O2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="P2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="R2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="S2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="T2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="U2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="V2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="W2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="X2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="Y2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="Z2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AA2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AB2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AC2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AD2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AE2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AF2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AG2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AH2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AI2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AJ2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+      <c r="AK2" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!$B$6</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <f>AVERAGE('Mexico Psgr LDVs, Psgr HDVs'!B8:B9,'Mexico Psgr LDVs, Psgr HDVs'!B11)</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:AK3" si="0">B3</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="W3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="X3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="Y3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="Z3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AA3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AB3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AC3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AD3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AE3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AH3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AI3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="AK3" s="7">
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <f>'BTS NTS Modal Profile Data'!B8</f>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C7" si="1">$B4</f>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:AK7" si="2">$B4</f>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AA4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AE4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AH4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AI4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AK4" s="7">
+        <f t="shared" si="2"/>
+        <v>111.39416306433705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <f>'BTS NTS Modal Profile Data'!B36</f>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AH5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AI5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+      <c r="AK5" s="7">
+        <f t="shared" si="2"/>
+        <v>48.656731685074099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <f>'Mexico Psgr LDVs, Psgr HDVs'!B15</f>
+        <v>1.33</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.33</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AA7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AB7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AC7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AD7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AE7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AI7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+      <c r="AK7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="42.75">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="32">
       <c r="A1" s="19" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1">
         <v>2016</v>
@@ -3749,7 +6914,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
@@ -3893,151 +7058,152 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="52">
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="O3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="T3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="U3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="W3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>'Mexico Freight Activity'!$U$19</f>
+        <v>17.260730580665893</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
         <f>'BTS NTS Modal Profile Data'!B9</f>
@@ -4182,7 +7348,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <f>'BTS NTS Modal Profile Data'!B19</f>
@@ -4327,7 +7493,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <f>'BTS NTS Modal Profile Data'!B54</f>
@@ -4472,7 +7638,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/trans/AVLo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Mexico\eps-mexico\InputData\trans\AVLo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FE8474-B543-234B-8C9F-6B28AE5E40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083876DC-CED2-4391-8BA7-A796EB208C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="500" windowWidth="26280" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="410" windowWidth="14960" windowHeight="13130" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2534,7 +2534,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2719,6 +2719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3184,7 +3190,7 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3274,6 +3280,9 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3850,14 +3859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="85.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="85.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4161,11 +4170,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="1" max="1" width="73.6328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="102.33203125" customWidth="1"/>
+    <col min="3" max="3" width="102.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4437,7 +4446,7 @@
         <v>33.023738872403563</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16">
+    <row r="36" spans="1:3">
       <c r="A36" s="10" t="s">
         <v>37</v>
       </c>
@@ -4608,7 +4617,7 @@
         <v>17287</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16">
+    <row r="59" spans="1:3">
       <c r="A59" s="10" t="s">
         <v>47</v>
       </c>
@@ -4682,12 +4691,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="22.5" style="10" customWidth="1"/>
+    <col min="1" max="2" width="22.453125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48">
+    <row r="1" spans="1:2" ht="43.5">
       <c r="A1" s="28" t="s">
         <v>135</v>
       </c>
@@ -4695,7 +4704,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2" s="27" t="s">
         <v>133</v>
       </c>
@@ -4703,7 +4712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
         <v>131</v>
       </c>
@@ -4711,7 +4720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>129</v>
@@ -4819,9 +4828,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="16384" width="11.6640625" style="29"/>
+    <col min="1" max="16384" width="11.6328125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5049,11 +5058,11 @@
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
@@ -5766,16 +5775,16 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="48">
+    <row r="1" spans="1:37" ht="43.5">
       <c r="A1" s="19" t="s">
         <v>101</v>
       </c>
@@ -6190,148 +6199,112 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
-        <f>'BTS NTS Modal Profile Data'!B8</f>
+      <c r="B4" s="53">
         <v>111.39416306433705</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C7" si="1">$B4</f>
+      <c r="C4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:AK7" si="2">$B4</f>
+      <c r="D4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="E4" s="7">
-        <f t="shared" si="2"/>
+      <c r="E4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" si="2"/>
+      <c r="F4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" si="2"/>
+      <c r="G4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="H4" s="7">
-        <f t="shared" si="2"/>
+      <c r="H4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" si="2"/>
+      <c r="I4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" si="2"/>
+      <c r="J4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" si="2"/>
+      <c r="K4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="L4" s="7">
-        <f t="shared" si="2"/>
+      <c r="L4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="M4" s="7">
-        <f t="shared" si="2"/>
+      <c r="M4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="N4" s="7">
-        <f t="shared" si="2"/>
+      <c r="N4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="O4" s="7">
-        <f t="shared" si="2"/>
+      <c r="O4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="P4" s="7">
-        <f t="shared" si="2"/>
+      <c r="P4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="R4" s="7">
-        <f t="shared" si="2"/>
+      <c r="R4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="S4" s="7">
-        <f t="shared" si="2"/>
+      <c r="S4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="T4" s="7">
-        <f t="shared" si="2"/>
+      <c r="T4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="U4" s="7">
-        <f t="shared" si="2"/>
+      <c r="U4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="V4" s="7">
-        <f t="shared" si="2"/>
+      <c r="V4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="W4" s="7">
-        <f t="shared" si="2"/>
+      <c r="W4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="X4" s="7">
-        <f t="shared" si="2"/>
+      <c r="X4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="Y4" s="7">
-        <f t="shared" si="2"/>
+      <c r="Y4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="Z4" s="7">
-        <f t="shared" si="2"/>
+      <c r="Z4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AA4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AA4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AB4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AB4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AC4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AC4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AD4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AD4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AE4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AE4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AF4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AF4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AG4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AG4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AH4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AI4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AI4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AJ4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AJ4" s="54">
         <v>111.39416306433705</v>
       </c>
-      <c r="AK4" s="7">
-        <f t="shared" si="2"/>
+      <c r="AK4" s="54">
         <v>111.39416306433705</v>
       </c>
     </row>
@@ -6339,296 +6312,225 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <f>'BTS NTS Modal Profile Data'!B36</f>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="W5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="X5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="Y5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AA5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AB5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AC5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AG5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AH5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AI5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AJ5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
-      </c>
-      <c r="AK5" s="7">
-        <f t="shared" si="2"/>
-        <v>48.656731685074099</v>
+      <c r="B5" s="53">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="C5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="D5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="E5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="F5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="G5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="H5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="I5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="J5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="K5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="L5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="M5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="N5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="O5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="P5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="R5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="S5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="T5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="U5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="V5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="W5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="X5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="Y5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="Z5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AA5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AB5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AC5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AD5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AE5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AF5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AG5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AH5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AI5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AJ5" s="54">
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AK5" s="54">
+        <v>486.56731685074101</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
+      <c r="C6" s="54">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="2"/>
+      <c r="D6" s="54">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
-        <f t="shared" si="2"/>
+      <c r="E6" s="54">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" si="2"/>
+      <c r="F6" s="54">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
+      <c r="G6" s="54">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
+      <c r="H6" s="54">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
+      <c r="I6" s="54">
         <v>1</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" si="2"/>
+      <c r="J6" s="54">
         <v>1</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" si="2"/>
+      <c r="K6" s="54">
         <v>1</v>
       </c>
-      <c r="L6" s="7">
-        <f t="shared" si="2"/>
+      <c r="L6" s="54">
         <v>1</v>
       </c>
-      <c r="M6" s="7">
-        <f t="shared" si="2"/>
+      <c r="M6" s="54">
         <v>1</v>
       </c>
-      <c r="N6" s="7">
-        <f t="shared" si="2"/>
+      <c r="N6" s="54">
         <v>1</v>
       </c>
-      <c r="O6" s="7">
-        <f t="shared" si="2"/>
+      <c r="O6" s="54">
         <v>1</v>
       </c>
-      <c r="P6" s="7">
-        <f t="shared" si="2"/>
+      <c r="P6" s="54">
         <v>1</v>
       </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q6" s="54">
         <v>1</v>
       </c>
-      <c r="R6" s="7">
-        <f t="shared" si="2"/>
+      <c r="R6" s="54">
         <v>1</v>
       </c>
-      <c r="S6" s="7">
-        <f t="shared" si="2"/>
+      <c r="S6" s="54">
         <v>1</v>
       </c>
-      <c r="T6" s="7">
-        <f t="shared" si="2"/>
+      <c r="T6" s="54">
         <v>1</v>
       </c>
-      <c r="U6" s="7">
-        <f t="shared" si="2"/>
+      <c r="U6" s="54">
         <v>1</v>
       </c>
-      <c r="V6" s="7">
-        <f t="shared" si="2"/>
+      <c r="V6" s="54">
         <v>1</v>
       </c>
-      <c r="W6" s="7">
-        <f t="shared" si="2"/>
+      <c r="W6" s="54">
         <v>1</v>
       </c>
-      <c r="X6" s="7">
-        <f t="shared" si="2"/>
+      <c r="X6" s="54">
         <v>1</v>
       </c>
-      <c r="Y6" s="7">
-        <f t="shared" si="2"/>
+      <c r="Y6" s="54">
         <v>1</v>
       </c>
-      <c r="Z6" s="7">
-        <f t="shared" si="2"/>
+      <c r="Z6" s="54">
         <v>1</v>
       </c>
-      <c r="AA6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AA6" s="54">
         <v>1</v>
       </c>
-      <c r="AB6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AB6" s="54">
         <v>1</v>
       </c>
-      <c r="AC6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AC6" s="54">
         <v>1</v>
       </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AD6" s="54">
         <v>1</v>
       </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AE6" s="54">
         <v>1</v>
       </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AF6" s="54">
         <v>1</v>
       </c>
-      <c r="AG6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AG6" s="54">
         <v>1</v>
       </c>
-      <c r="AH6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH6" s="54">
         <v>1</v>
       </c>
-      <c r="AI6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AI6" s="54">
         <v>1</v>
       </c>
-      <c r="AJ6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AJ6" s="54">
         <v>1</v>
       </c>
-      <c r="AK6" s="7">
-        <f t="shared" si="2"/>
+      <c r="AK6" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6641,11 +6543,11 @@
         <v>1.33</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C4:C7" si="1">$B7</f>
         <v>1.33</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D4:AK7" si="2">$B7</f>
         <v>1.33</v>
       </c>
       <c r="E7" s="7">
@@ -6793,16 +6695,16 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="32">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="43.5">
       <c r="A1" s="19" t="s">
         <v>102</v>
       </c>
@@ -7205,144 +7107,109 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <f>'BTS NTS Modal Profile Data'!B9</f>
+      <c r="B4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
+      <c r="C4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" si="1"/>
+      <c r="D4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="E4" s="6">
-        <f t="shared" si="1"/>
+      <c r="E4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
+      <c r="F4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
+      <c r="G4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="H4" s="6">
-        <f t="shared" si="1"/>
+      <c r="H4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="I4" s="6">
-        <f t="shared" si="1"/>
+      <c r="I4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="J4" s="6">
-        <f t="shared" si="1"/>
+      <c r="J4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" si="1"/>
+      <c r="K4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="L4" s="6">
-        <f t="shared" si="1"/>
+      <c r="L4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" si="1"/>
+      <c r="M4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="N4" s="6">
-        <f t="shared" si="1"/>
+      <c r="N4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" si="1"/>
+      <c r="O4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="P4" s="6">
-        <f t="shared" si="1"/>
+      <c r="P4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="Q4" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="R4" s="6">
-        <f t="shared" si="1"/>
+      <c r="R4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="S4" s="6">
-        <f t="shared" si="1"/>
+      <c r="S4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="T4" s="6">
-        <f t="shared" si="1"/>
+      <c r="T4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="U4" s="6">
-        <f t="shared" si="1"/>
+      <c r="U4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="V4" s="6">
-        <f t="shared" si="1"/>
+      <c r="V4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="W4" s="6">
-        <f t="shared" si="1"/>
+      <c r="W4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="X4" s="6">
-        <f t="shared" si="1"/>
+      <c r="X4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="Y4" s="6">
-        <f t="shared" si="1"/>
+      <c r="Y4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="Z4" s="6">
-        <f t="shared" si="1"/>
+      <c r="Z4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AA4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AA4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AB4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AB4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AC4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AC4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AD4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AD4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AE4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AE4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AF4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AF4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AG4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AG4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AH4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AH4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AI4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AI4" s="55">
         <v>41.989116133258747</v>
       </c>
-      <c r="AJ4" s="6">
-        <f t="shared" si="1"/>
+      <c r="AJ4" s="55">
         <v>41.989116133258747</v>
       </c>
     </row>
@@ -7350,144 +7217,109 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <f>'BTS NTS Modal Profile Data'!B19</f>
+      <c r="B5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
+      <c r="C5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="1"/>
+      <c r="D5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
+      <c r="E5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
+      <c r="F5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
+      <c r="G5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
+      <c r="H5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="I5" s="6">
-        <f t="shared" si="1"/>
+      <c r="I5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" si="1"/>
+      <c r="J5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" si="1"/>
+      <c r="K5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" si="1"/>
+      <c r="L5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" si="1"/>
+      <c r="M5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="N5" s="6">
-        <f t="shared" si="1"/>
+      <c r="N5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="O5" s="6">
-        <f t="shared" si="1"/>
+      <c r="O5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="P5" s="6">
-        <f t="shared" si="1"/>
+      <c r="P5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="Q5" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="R5" s="6">
-        <f t="shared" si="1"/>
+      <c r="R5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="S5" s="6">
-        <f t="shared" si="1"/>
+      <c r="S5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="T5" s="6">
-        <f t="shared" si="1"/>
+      <c r="T5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="U5" s="6">
-        <f t="shared" si="1"/>
+      <c r="U5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="V5" s="6">
-        <f t="shared" si="1"/>
+      <c r="V5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="W5" s="6">
-        <f t="shared" si="1"/>
+      <c r="W5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="X5" s="6">
-        <f t="shared" si="1"/>
+      <c r="X5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="Y5" s="6">
-        <f t="shared" si="1"/>
+      <c r="Y5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="Z5" s="6">
-        <f t="shared" si="1"/>
+      <c r="Z5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AA5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AA5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AB5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AB5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AC5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AC5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AD5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AD5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AE5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AF5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AF5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AG5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AG5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AH5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AH5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AI5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AI5" s="55">
         <v>3512.35916421195</v>
       </c>
-      <c r="AJ5" s="6">
-        <f t="shared" si="1"/>
+      <c r="AJ5" s="55">
         <v>3512.35916421195</v>
       </c>
     </row>
@@ -7495,144 +7327,109 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
-        <f>'BTS NTS Modal Profile Data'!B54</f>
+      <c r="B6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
+      <c r="C6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="1"/>
+      <c r="D6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
+      <c r="E6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
+      <c r="F6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
+      <c r="G6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
+      <c r="H6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" si="1"/>
+      <c r="I6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="J6" s="6">
-        <f t="shared" si="1"/>
+      <c r="J6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" si="1"/>
+      <c r="K6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="L6" s="6">
-        <f t="shared" si="1"/>
+      <c r="L6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="1"/>
+      <c r="M6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="N6" s="6">
-        <f t="shared" si="1"/>
+      <c r="N6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="O6" s="6">
-        <f t="shared" si="1"/>
+      <c r="O6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="P6" s="6">
-        <f t="shared" si="1"/>
+      <c r="P6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="Q6" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="R6" s="6">
-        <f t="shared" si="1"/>
+      <c r="R6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="S6" s="6">
-        <f t="shared" si="1"/>
+      <c r="S6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="T6" s="6">
-        <f t="shared" si="1"/>
+      <c r="T6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="U6" s="6">
-        <f t="shared" si="1"/>
+      <c r="U6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="V6" s="6">
-        <f t="shared" si="1"/>
+      <c r="V6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="W6" s="6">
-        <f t="shared" si="1"/>
+      <c r="W6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="X6" s="6">
-        <f t="shared" si="1"/>
+      <c r="X6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="Y6" s="6">
-        <f t="shared" si="1"/>
+      <c r="Y6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="Z6" s="6">
-        <f t="shared" si="1"/>
+      <c r="Z6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AA6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AA6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AB6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AB6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AC6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AC6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AD6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AD6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AE6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AE6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AF6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AF6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AG6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AG6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AH6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AH6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AI6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AI6" s="55">
         <v>1974.4736422180429</v>
       </c>
-      <c r="AJ6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AJ6" s="55">
         <v>1974.4736422180429</v>
       </c>
     </row>
